--- a/Reports/MAP_C_Toulis.xlsx
+++ b/Reports/MAP_C_Toulis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Κατηγορία</t>
   </si>
@@ -44,13 +44,28 @@
   </si>
   <si>
     <t>Πωλητής</t>
+  </si>
+  <si>
+    <t>Μικροσυσκευές</t>
+  </si>
+  <si>
+    <t>First Austria FA-5560-2 Ανεμιστήρας Πύργος 60W με Τηλεχειριστήριο</t>
+  </si>
+  <si>
+    <t>Boutique Electric</t>
+  </si>
+  <si>
+    <t>ΑΤΑΜΙΑΝ ΑΤΑΜ ΤΟΥ ΔΑΝΙΕΛ</t>
+  </si>
+  <si>
+    <t>Χ. Τουλής</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +77,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,11 +131,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,22 +433,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="69" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -451,6 +483,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>98.98999999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>99</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
